--- a/Verdeling_Fotos.xlsx
+++ b/Verdeling_Fotos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht-my.sharepoint.com/personal/stephan_zaaijer_student_hu_nl/Documents/Konijnen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Desktop\Boundary_Box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71764A51-B89C-4B49-9986-28F529179B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46737DA8-E6F2-4605-BFA5-5FFA9F8367C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="192" windowWidth="7500" windowHeight="11976" xr2:uid="{A1F5904E-E824-40B5-935F-BF5F5C4816F9}"/>
+    <workbookView xWindow="4335" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{A1F5904E-E824-40B5-935F-BF5F5C4816F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Isaak</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>226 - 250</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>251 - 275</t>
   </si>
 </sst>
 </file>
@@ -446,18 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0281BAF1-2304-493C-9820-0A04EB0D5BFF}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -465,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -481,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -489,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -497,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -505,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -513,7 +519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -521,7 +527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -529,12 +535,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
